--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,12 +12,257 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Airport Proposal</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible weekend with Isabel’s family, which had wiped away any doubts Sven had had about his decision to propose. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">They were a little pressed for time, with only a little over an hour until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>hen Isabel stopped to rummage through her purse looking for her phone, Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he bought her.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">He had received her parents’ blessing during the trip, and he was almost giddy with excitement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He tilted the ring back and forward, despite having already studied it daily since he had purchased it a few weeks ago. </t>
+  </si>
+  <si>
+    <t>It was a simple design, with a clear, white diamond on a thin silver band.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Sven, let’s go! ” Isabel said. </t>
+  </si>
+  <si>
+    <t>Sven discretely closed the box, and put it in his pocket.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">hey entered the security line, weaving through the roped walkways to the front. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her bag. </t>
+  </si>
+  <si>
+    <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop.</t>
+  </si>
+  <si>
+    <t>She set it into a bin, and then had to unstrap her heels, and put everything else into the bins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, she relieved Sven of his holding duties and he hurriedly deposited his own backpack on the belt as the people behind them glared. </t>
+  </si>
+  <si>
+    <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Sir, please step to the side.</t>
+  </si>
+  <si>
+    <t>You need to empty your pockets,” the security guard said.</t>
+  </si>
+  <si>
+    <t>With a sinking feeling Sven realized the mistake he had made, as Isabel and the guard both looked at him expectantly.</t>
+  </si>
+  <si>
+    <t>He grabbed Isabel's hand as he reached into his pocket, deciding he would make the best of the situation.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>e got down on one knee and, giggling slightly at her confused look, said, "Isabel, this isn't quite how I'd planned this, but - will you marry me?"</t>
+    </r>
+  </si>
+  <si>
+    <t>The security guard gasped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All the people who were putting their shoes back on and gathering their belongings stopped what they were doing and walked closer to the couple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isabel was astonished, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
+  </si>
+  <si>
+    <t>She attempted to stammer a response as she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve their bags.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>he fled onto the concourse with Sven trying to catch up behind her, both of them slipping in their socked feet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Everyone in the terminal was looking at them with confusion as Sven finally caught up to her, holding the bags in one hand and the open ring box in the other.</t>
+  </si>
+  <si>
+    <t>“Well, Isabel?”</t>
+  </si>
+  <si>
+    <t>He watched her face as she turned, trying to read her expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her eyes were wide, but she was smiling as she hyperventilated. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>“O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">f course yes, Sven, yes!” </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">They dropped their belongings and hugged, and Sven slipped the ring onto Isabel’s finger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After getting their shoes back on, they practically skipped to the gate, filled with joy.</t>
+  </si>
+  <si>
+    <t>Sven high-fived a confused shoe-shine attendant as they passed.</t>
+  </si>
+  <si>
+    <t>They sat down outside their gate, having actually made good time, until the attendant called for passengers.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ey boarded, sitting together in first class, and had a glass of champagne to celebrate the departure into their new life together.</t>
+    </r>
+  </si>
+  <si>
+    <t>Some of their neighboring passengers who had witnessed the proposal congratulated them, and a woman next to them showed them that she had been live-tweeting the whole event and that it was already going viral online.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Isabel slid down in her seat with her hands over her face, both embarrassed and overjoyed at the same time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -27,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +288,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,7 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -215,8 +470,8 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1555,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1323,9 +1578,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>22</v>
+    <row r="2" ht="164.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1334,9 +1589,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" ht="152.05" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1345,8 +1600,10 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
+    <row r="4" ht="331.8" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>3</v>
+      </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1354,8 +1611,10 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
+    <row r="5" ht="169.8" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>4</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1363,8 +1622,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
+    <row r="6" ht="223.8" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>5</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1372,8 +1633,10 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
+    <row r="7" ht="151.8" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>6</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1381,8 +1644,10 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
+    <row r="8" ht="61.8" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1390,8 +1655,10 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
+    <row r="9" ht="115.8" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>8</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1399,8 +1666,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
+    <row r="10" ht="151.8" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1408,8 +1677,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
+    <row r="11" ht="151.8" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>10</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1417,8 +1688,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
+    <row r="12" ht="187.8" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>11</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1426,8 +1699,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
+    <row r="13" ht="187.8" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>12</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1435,8 +1710,10 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
+    <row r="14" ht="259.8" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>13</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1444,8 +1721,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
+    <row r="15" ht="223.8" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>14</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1453,8 +1732,10 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
+    <row r="16" ht="61.8" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1462,8 +1743,10 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
+    <row r="17" ht="97.8" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>16</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1471,8 +1754,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
+    <row r="18" ht="223.8" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>17</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1480,8 +1765,10 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
+    <row r="19" ht="187.8" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>18</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1489,8 +1776,10 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
+    <row r="20" ht="295.8" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>19</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1498,8 +1787,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
+    <row r="21" ht="61.8" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>20</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1507,14 +1798,181 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
+    <row r="22" ht="259.8" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>21</v>
+      </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="205.8" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="241.8" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="205.8" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="277.8" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="43.8" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="115.8" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="133.8" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="61.8" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="187.8" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="169.8" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="133.8" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="205.8" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" ht="259.8" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="385.8" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" ht="440.35" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,9 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
+  </si>
+  <si>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
   </si>
   <si>
     <r>
@@ -70,7 +76,7 @@
     <t xml:space="preserve">He had received her parents’ blessing during the trip, and he was almost giddy with excitement. </t>
   </si>
   <si>
-    <t xml:space="preserve">He tilted the ring back and forward, despite having already studied it daily since he had purchased it a few weeks ago. </t>
+    <t xml:space="preserve">He tilted the ring backward and forward, despite having already studied it daily since he had purchased it a few weeks ago. </t>
   </si>
   <si>
     <t>It was a simple design, with a clear, white diamond on a thin silver band.</t>
@@ -79,7 +85,7 @@
     <t xml:space="preserve">“Sven, let’s go! ” Isabel said. </t>
   </si>
   <si>
-    <t>Sven discretely closed the box, and put it in his pocket.</t>
+    <t>Sven discretely closed the box and put it in his pocket.</t>
   </si>
   <si>
     <r>
@@ -114,10 +120,10 @@
     <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop.</t>
   </si>
   <si>
-    <t>She set it into a bin, and then had to unstrap her heels, and put everything else into the bins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, she relieved Sven of his holding duties and he hurriedly deposited his own backpack on the belt as the people behind them glared. </t>
+    <t>She set it into a bin and then had to unstrap her heels and put everything else into the bins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, she relieved Sven of his holding duties, and he hurriedly deposited his own backpack on the belt as the people behind them glared. </t>
   </si>
   <si>
     <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
@@ -132,7 +138,7 @@
     <t>With a sinking feeling Sven realized the mistake he had made, as Isabel and the guard both looked at him expectantly.</t>
   </si>
   <si>
-    <t>He grabbed Isabel's hand as he reached into his pocket, deciding he would make the best of the situation.</t>
+    <t>Sven,  deciding he would make the best of the situation, grabbed Isabel's hand as he reached into his pocket.</t>
   </si>
   <si>
     <r>
@@ -171,7 +177,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>S</t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -179,11 +185,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he fled onto the concourse with Sven trying to catch up behind her, both of them slipping in their socked feet.</t>
+      <t xml:space="preserve">oth of them slipping in their socked feet, </t>
     </r>
-  </si>
-  <si>
-    <t>Everyone in the terminal was looking at them with confusion as Sven finally caught up to her, holding the bags in one hand and the open ring box in the other.</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>he fled onto the concourse with Sven trying to catch up behind her.</t>
+    </r>
+  </si>
+  <si>
+    <t>Everyone in the terminal was looking at them with confusion as Sven, holding the bags in one hand and the open ring box in the other, finally caught up to her.</t>
   </si>
   <si>
     <t>“Well, Isabel?”</t>
@@ -216,7 +238,7 @@
     <t xml:space="preserve">They dropped their belongings and hugged, and Sven slipped the ring onto Isabel’s finger. </t>
   </si>
   <si>
-    <t xml:space="preserve"> After getting their shoes back on, they practically skipped to the gate, filled with joy.</t>
+    <t>After getting their shoes back on, they practically skipped to the gate, filled with joy.</t>
   </si>
   <si>
     <t>Sven high-fived a confused shoe-shine attendant as they passed.</t>
@@ -439,7 +461,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -455,7 +477,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -464,7 +489,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -472,6 +500,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,7 +1589,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1571,8 +1605,12 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1580,399 +1618,552 @@
     </row>
     <row r="2" ht="164.25" customHeight="1">
       <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="152.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="331.8" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="169.8" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="241.8" customHeight="1">
+      <c r="A6" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="151.8" customHeight="1">
+      <c r="A7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="61.8" customHeight="1">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="115.8" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="151.8" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="151.8" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="187.8" customHeight="1">
+      <c r="A12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="187.8" customHeight="1">
+      <c r="A13" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="259.8" customHeight="1">
+      <c r="A14" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="223.8" customHeight="1">
+      <c r="A15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="61.8" customHeight="1">
+      <c r="A16" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="97.8" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="223.8" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="205.8" customHeight="1">
+      <c r="A19" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="295.8" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="169.8" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="61.8" customHeight="1">
+      <c r="A21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="259.8" customHeight="1">
+      <c r="A22" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="205.8" customHeight="1">
+      <c r="A23" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="241.8" customHeight="1">
+      <c r="A24" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="205.8" customHeight="1">
+      <c r="A25" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="277.8" customHeight="1">
+      <c r="A26" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="43.8" customHeight="1">
+      <c r="A27" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="115.8" customHeight="1">
+      <c r="A28" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="133.8" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="61.8" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="223.8" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="151.8" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="61.8" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="115.8" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="151.8" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="151.8" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="187.8" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="187.8" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="259.8" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="223.8" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="61.8" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="97.8" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="223.8" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="187.8" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="295.8" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="61.8" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="259.8" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="205.8" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="241.8" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="205.8" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="277.8" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="43.8" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="115.8" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="133.8" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="61.8" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" ht="187.8" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" ht="169.8" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" ht="133.8" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="205.8" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="A34" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" ht="259.8" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="385.8" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" ht="440.35" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="25.8" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -114,28 +114,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her bag. </t>
+    <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
   </si>
   <si>
     <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop.</t>
   </si>
   <si>
-    <t>She set it into a bin and then had to unstrap her heels and put everything else into the bins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, she relieved Sven of his holding duties, and he hurriedly deposited his own backpack on the belt as the people behind them glared. </t>
+    <t>She set it into a bin and then had to unstrap her leather boots and put everything else into the bins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, she relieved Sven of his holding duties, and he hurriedly deposited his own backpack on the belt as the people behind them glared without shame. </t>
   </si>
   <si>
     <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Sir, please step to the side.</t>
+    <t>“Sir, please step to the side.</t>
   </si>
   <si>
     <t>You need to empty your pockets,” the security guard said.</t>
   </si>
   <si>
-    <t>With a sinking feeling Sven realized the mistake he had made, as Isabel and the guard both looked at him expectantly.</t>
+    <t>With a sinking feeling Sven realized the mistake he had made forgetting to put the ring back in his bag, as Isabel and the guard both looked at him expectantly.</t>
   </si>
   <si>
     <t>Sven,  deciding he would make the best of the situation, grabbed Isabel's hand as he reached into his pocket.</t>
@@ -162,10 +162,10 @@
     <t>The security guard gasped.</t>
   </si>
   <si>
-    <t xml:space="preserve"> All the people who were putting their shoes back on and gathering their belongings stopped what they were doing and walked closer to the couple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Isabel was astonished, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
+    <t>All the people who were putting their shoes back on and gathering their belongings stopped what they were doing and walked closer to the couple.</t>
+  </si>
+  <si>
+    <t>Isabel was astonished, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
   </si>
   <si>
     <t>She attempted to stammer a response as she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve their bags.</t>
@@ -208,15 +208,20 @@
     <t>Everyone in the terminal was looking at them with confusion as Sven, holding the bags in one hand and the open ring box in the other, finally caught up to her.</t>
   </si>
   <si>
-    <t>“Well, Isabel?”</t>
+    <t>“Isabel?”</t>
   </si>
   <si>
     <t>He watched her face as she turned, trying to read her expression.</t>
   </si>
   <si>
-    <t xml:space="preserve">Her eyes were wide, but she was smiling as she hyperventilated. </t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Her eyes were wide, but she was smiling as she hyperventilated, </t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -298,7 +303,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -499,10 +504,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1589,7 +1594,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1597,7 +1602,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1751,7 +1762,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="151.8" customHeight="1">
+    <row r="11" ht="169.8" customHeight="1">
       <c r="A11" t="s" s="12">
         <v>12</v>
       </c>
@@ -1781,7 +1792,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="187.8" customHeight="1">
+    <row r="13" ht="205.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>14</v>
       </c>
@@ -1796,7 +1807,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="259.8" customHeight="1">
+    <row r="14" ht="295.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>15</v>
       </c>
@@ -1856,7 +1867,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="223.8" customHeight="1">
+    <row r="18" ht="277.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>19</v>
       </c>
@@ -1991,7 +2002,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="43.8" customHeight="1">
+    <row r="27" ht="25.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>28</v>
       </c>
@@ -2021,7 +2032,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="133.8" customHeight="1">
+    <row r="29" ht="169.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>30</v>
       </c>
@@ -2029,14 +2040,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="61.8" customHeight="1">
+    <row r="30" ht="187.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>31</v>
       </c>
@@ -2051,7 +2062,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="187.8" customHeight="1">
+    <row r="31" ht="169.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>32</v>
       </c>
@@ -2066,7 +2077,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="169.8" customHeight="1">
+    <row r="32" ht="133.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>33</v>
       </c>
@@ -2081,7 +2092,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="133.8" customHeight="1">
+    <row r="33" ht="205.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>34</v>
       </c>
@@ -2096,12 +2107,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="205.8" customHeight="1">
+    <row r="34" ht="259.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>35</v>
       </c>
       <c r="B34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="10">
         <v>4</v>
@@ -2111,7 +2122,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="259.8" customHeight="1">
+    <row r="35" ht="385.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>36</v>
       </c>
@@ -2126,7 +2137,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="385.8" customHeight="1">
+    <row r="36" ht="440.35" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>37</v>
       </c>
@@ -2141,29 +2152,14 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="440.35" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
+    <row r="37" ht="25.8" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="25.8" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -155,7 +155,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>e got down on one knee and, giggling slightly at her confused look, said, "Isabel, this isn't quite how I'd planned this, but - will you marry me?"</t>
+      <t>e got down on one knee and, giggling slightly at her confused look, said, “Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
     </r>
   </si>
   <si>
@@ -303,7 +303,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -504,10 +504,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1602,13 +1602,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -303,7 +306,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -504,10 +507,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1602,7 +1605,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1616,14 +1625,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="164.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1631,14 +1642,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>22</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="152.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="4" ht="331.8" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1668,7 +1681,7 @@
     </row>
     <row r="5" ht="169.8" customHeight="1">
       <c r="A5" t="s" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1683,7 +1696,7 @@
     </row>
     <row r="6" ht="241.8" customHeight="1">
       <c r="A6" t="s" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1698,7 +1711,7 @@
     </row>
     <row r="7" ht="151.8" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1713,7 +1726,7 @@
     </row>
     <row r="8" ht="61.8" customHeight="1">
       <c r="A8" t="s" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -1728,7 +1741,7 @@
     </row>
     <row r="9" ht="115.8" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1743,7 +1756,7 @@
     </row>
     <row r="10" ht="151.8" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1758,7 +1771,7 @@
     </row>
     <row r="11" ht="169.8" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1773,7 +1786,7 @@
     </row>
     <row r="12" ht="187.8" customHeight="1">
       <c r="A12" t="s" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="13" ht="205.8" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1803,7 +1816,7 @@
     </row>
     <row r="14" ht="295.8" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="15" ht="223.8" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1833,7 +1846,7 @@
     </row>
     <row r="16" ht="61.8" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1848,7 +1861,7 @@
     </row>
     <row r="17" ht="97.8" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1863,7 +1876,7 @@
     </row>
     <row r="18" ht="277.8" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1878,7 +1891,7 @@
     </row>
     <row r="19" ht="205.8" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -1893,7 +1906,7 @@
     </row>
     <row r="20" ht="295.8" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
@@ -1908,7 +1921,7 @@
     </row>
     <row r="21" ht="61.8" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -1923,7 +1936,7 @@
     </row>
     <row r="22" ht="259.8" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -1938,7 +1951,7 @@
     </row>
     <row r="23" ht="205.8" customHeight="1">
       <c r="A23" t="s" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>2</v>
@@ -1953,7 +1966,7 @@
     </row>
     <row r="24" ht="241.8" customHeight="1">
       <c r="A24" t="s" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -1968,7 +1981,7 @@
     </row>
     <row r="25" ht="205.8" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1983,7 +1996,7 @@
     </row>
     <row r="26" ht="277.8" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1998,7 +2011,7 @@
     </row>
     <row r="27" ht="25.8" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>3</v>
@@ -2013,7 +2026,7 @@
     </row>
     <row r="28" ht="115.8" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
@@ -2028,7 +2041,7 @@
     </row>
     <row r="29" ht="169.8" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>3</v>
@@ -2043,7 +2056,7 @@
     </row>
     <row r="30" ht="187.8" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
@@ -2058,7 +2071,7 @@
     </row>
     <row r="31" ht="169.8" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>3</v>
@@ -2073,7 +2086,7 @@
     </row>
     <row r="32" ht="133.8" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>3</v>
@@ -2088,7 +2101,7 @@
     </row>
     <row r="33" ht="205.8" customHeight="1">
       <c r="A33" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>3</v>
@@ -2103,7 +2116,7 @@
     </row>
     <row r="34" ht="259.8" customHeight="1">
       <c r="A34" t="s" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>4</v>
@@ -2118,7 +2131,7 @@
     </row>
     <row r="35" ht="385.8" customHeight="1">
       <c r="A35" t="s" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9">
         <v>4</v>
@@ -2133,7 +2146,7 @@
     </row>
     <row r="36" ht="440.35" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="9">
         <v>4</v>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +55,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">They were a little pressed for time, with only a little over an hour until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
+    <t xml:space="preserve">They had only been dating for 11 months so this was the first time he had met her family. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were a little pressed for time, with only a little over an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
   </si>
   <si>
     <r>
@@ -82,7 +85,7 @@
     <t xml:space="preserve">He tilted the ring backward and forward, despite having already studied it daily since he had purchased it a few weeks ago. </t>
   </si>
   <si>
-    <t>It was a simple design, with a clear, white diamond on a thin silver band.</t>
+    <t>It was a simple design, with two pink diamonds on a silver band.</t>
   </si>
   <si>
     <t xml:space="preserve">“Sven, let’s go! ” Isabel said. </t>
@@ -120,25 +123,28 @@
     <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
   </si>
   <si>
-    <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop.</t>
-  </si>
-  <si>
-    <t>She set it into a bin and then had to unstrap her leather boots and put everything else into the bins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, she relieved Sven of his holding duties, and he hurriedly deposited his own backpack on the belt as the people behind them glared without shame. </t>
+    <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop and set it in a bin.</t>
+  </si>
+  <si>
+    <t>She then gave her bag to Sven, unstrapped her heels, and took the gab back from Sven, placing it on the conveyor belt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, pulled out his laptop, and took off his shoes as the people behind them glared without shame. </t>
   </si>
   <si>
     <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
   </si>
   <si>
-    <t>“Sir, please step to the side.</t>
-  </si>
-  <si>
-    <t>You need to empty your pockets,” the security guard said.</t>
-  </si>
-  <si>
-    <t>With a sinking feeling Sven realized the mistake he had made forgetting to put the ring back in his bag, as Isabel and the guard both looked at him expectantly.</t>
+    <t>“Sir, please step to the side.”</t>
+  </si>
+  <si>
+    <t>After looking at the monitor the security guard said, “Sir, please empty your pockets,”.</t>
+  </si>
+  <si>
+    <t>Isabel, shoeless and wrinkling her eyebrows at Sven, and the guard both looked at him expectantly.</t>
+  </si>
+  <si>
+    <t>With a sinking feeling Sven realized the mistake he had made forgetting to put the ring back in his bag.</t>
   </si>
   <si>
     <t>Sven,  deciding he would make the best of the situation, grabbed Isabel's hand as he reached into his pocket.</t>
@@ -150,7 +156,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>H</t>
+      <t>Suddenly, Sven</t>
     </r>
     <r>
       <rPr>
@@ -158,54 +164,26 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>e got down on one knee and, giggling slightly at her confused look, said, “Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
+      <t xml:space="preserve"> got down on one knee and, nervously chuckling, said, “Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">He held the ring out in the velvet box. </t>
+  </si>
+  <si>
     <t>The security guard gasped.</t>
   </si>
   <si>
     <t>All the people who were putting their shoes back on and gathering their belongings stopped what they were doing and walked closer to the couple.</t>
   </si>
   <si>
-    <t>Isabel was astonished, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
-  </si>
-  <si>
-    <t>She attempted to stammer a response as she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve their bags.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">oth of them slipping in their socked feet, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>he fled onto the concourse with Sven trying to catch up behind her.</t>
-    </r>
+    <t>Isabel was in shock, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
+  </si>
+  <si>
+    <t>She turned and frantically grabbed her and Sven’s shoes, leaving Sven to retrieve their bags and laptops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven, terrified, and now in shock himself, put their laptops in his bag and grabbing both their bags chased after Isabel onto the concourse. </t>
   </si>
   <si>
     <t>Everyone in the terminal was looking at them with confusion as Sven, holding the bags in one hand and the open ring box in the other, finally caught up to her.</t>
@@ -246,13 +224,19 @@
     <t xml:space="preserve">They dropped their belongings and hugged, and Sven slipped the ring onto Isabel’s finger. </t>
   </si>
   <si>
-    <t>After getting their shoes back on, they practically skipped to the gate, filled with joy.</t>
-  </si>
-  <si>
-    <t>Sven high-fived a confused shoe-shine attendant as they passed.</t>
-  </si>
-  <si>
-    <t>They sat down outside their gate, having actually made good time, until the attendant called for passengers.</t>
+    <t xml:space="preserve">“Isabel, you scared me!” He said. </t>
+  </si>
+  <si>
+    <t>After getting their shoes back on, they practically skipped to their gate, C40, filled with joy.</t>
+  </si>
+  <si>
+    <t>Sven was so happy he even high-fived a confused shoe-shine attendant as they passed.</t>
+  </si>
+  <si>
+    <t>They arrived at their gate, having actually made good time, until the attendant called for passengers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before boarding, Isabel texted her best friend telling her the news. </t>
   </si>
   <si>
     <r>
@@ -261,7 +245,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Th</t>
+      <t>After awhile, t</t>
     </r>
     <r>
       <rPr>
@@ -269,7 +253,15 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>ey boarded, sitting together in first class, and had a glass of champagne to celebrate the departure into their new life together.</t>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ey boarded, sitting together in first class, in seats 2A and 2B, and had a glass of champagne to celebrate the departure into their new life together.</t>
     </r>
   </si>
   <si>
@@ -306,7 +298,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -507,13 +499,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,7 +1589,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1605,13 +1597,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1649,7 +1635,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="152.05" customHeight="1">
+    <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1664,7 +1650,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="331.8" customHeight="1">
+    <row r="4" ht="164.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1672,15 +1658,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="169.8" customHeight="1">
-      <c r="A5" t="s" s="12">
+    <row r="5" ht="331.8" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B5" s="9">
@@ -1694,7 +1680,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="241.8" customHeight="1">
+    <row r="6" ht="169.8" customHeight="1">
       <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
@@ -1709,7 +1695,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="151.8" customHeight="1">
+    <row r="7" ht="241.8" customHeight="1">
       <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
@@ -1724,7 +1710,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="61.8" customHeight="1">
+    <row r="8" ht="133.8" customHeight="1">
       <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
@@ -1739,7 +1725,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="115.8" customHeight="1">
+    <row r="9" ht="61.8" customHeight="1">
       <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
@@ -1754,12 +1740,12 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="151.8" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" ht="115.8" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
       <c r="B10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -1769,8 +1755,8 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="169.8" customHeight="1">
-      <c r="A11" t="s" s="12">
+    <row r="11" ht="151.8" customHeight="1">
+      <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
       <c r="B11" s="9">
@@ -1784,7 +1770,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="187.8" customHeight="1">
+    <row r="12" ht="169.8" customHeight="1">
       <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
@@ -1799,7 +1785,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="205.8" customHeight="1">
+    <row r="13" ht="223.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
@@ -1814,7 +1800,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="295.8" customHeight="1">
+    <row r="14" ht="241.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
@@ -1829,7 +1815,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="223.8" customHeight="1">
+    <row r="15" ht="331.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
@@ -1844,7 +1830,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="61.8" customHeight="1">
+    <row r="16" ht="223.8" customHeight="1">
       <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
@@ -1859,7 +1845,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="97.8" customHeight="1">
+    <row r="17" ht="61.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
@@ -1874,7 +1860,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="277.8" customHeight="1">
+    <row r="18" ht="151.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
@@ -1904,22 +1890,22 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="295.8" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" ht="187.8" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="61.8" customHeight="1">
+    <row r="21" ht="205.8" customHeight="1">
       <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
@@ -1927,15 +1913,15 @@
         <v>2</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="259.8" customHeight="1">
-      <c r="A22" t="s" s="12">
+    <row r="22" ht="277.8" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B22" s="9">
@@ -1949,8 +1935,8 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="205.8" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" ht="44.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B23" s="9">
@@ -1964,7 +1950,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="241.8" customHeight="1">
+    <row r="24" ht="61.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
@@ -1979,12 +1965,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="205.8" customHeight="1">
+    <row r="25" ht="259.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
       <c r="B25" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -1994,12 +1980,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="277.8" customHeight="1">
+    <row r="26" ht="205.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
       <c r="B26" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -2009,12 +1995,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="25.8" customHeight="1">
+    <row r="27" ht="205.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -2024,7 +2010,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="115.8" customHeight="1">
+    <row r="28" ht="277.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -2039,7 +2025,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="169.8" customHeight="1">
+    <row r="29" ht="277.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -2047,14 +2033,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="187.8" customHeight="1">
+    <row r="30" ht="25.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -2062,14 +2048,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="169.8" customHeight="1">
+    <row r="31" ht="115.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -2077,14 +2063,14 @@
         <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="133.8" customHeight="1">
+    <row r="32" ht="169.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -2099,7 +2085,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="205.8" customHeight="1">
+    <row r="33" ht="187.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>35</v>
       </c>
@@ -2114,27 +2100,23 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="259.8" customHeight="1">
+    <row r="34" ht="61.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="385.8" customHeight="1">
+    <row r="35" ht="169.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>37</v>
       </c>
       <c r="B35" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="10">
         <v>4</v>
@@ -2144,12 +2126,12 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="440.35" customHeight="1">
+    <row r="36" ht="169.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>38</v>
       </c>
       <c r="B36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
@@ -2159,14 +2141,89 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="25.8" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
+    <row r="37" ht="187.8" customHeight="1">
+      <c r="A37" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="133.8" customHeight="1">
+      <c r="A38" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="313.8" customHeight="1">
+      <c r="A39" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="385.8" customHeight="1">
+      <c r="A40" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="440.35" customHeight="1">
+      <c r="A41" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="25.8" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -67,41 +67,25 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>W</t>
+      <t>Isabel stopped to rummage through her purse looking for her phone, and meanwhile Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>hen Isabel stopped to rummage through her purse looking for her phone, Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he bought her.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">He had received her parents’ blessing during the trip, and he was almost giddy with excitement. </t>
   </si>
   <si>
-    <t xml:space="preserve">He tilted the ring backward and forward, despite having already studied it daily since he had purchased it a few weeks ago. </t>
+    <t xml:space="preserve">He tilted the ring backward and forward, despite having already studied it daily since purchasing it a few weeks ago. </t>
   </si>
   <si>
     <t>It was a simple design, with two pink diamonds on a silver band.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Sven, let’s go! ” Isabel said. </t>
-  </si>
-  <si>
-    <t>Sven discretely closed the box and put it in his pocket.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">“Sven, I’m good,” Isabel said. </t>
+  </si>
+  <si>
+    <t>Sven closed the box and discretely put it in his pocket.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -123,31 +107,31 @@
     <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
   </si>
   <si>
+    <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces hidden all over his body. </t>
+  </si>
+  <si>
     <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop and set it in a bin.</t>
   </si>
   <si>
-    <t>She then gave her bag to Sven, unstrapped her heels, and took the gab back from Sven, placing it on the conveyor belt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, pulled out his laptop, and took off his shoes as the people behind them glared without shame. </t>
+    <t>She then gave her bag to Sven, unstrapped her heels, and took the bag back from Sven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, and took off his shoes. </t>
   </si>
   <si>
     <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
   </si>
   <si>
-    <t>“Sir, please step to the side.”</t>
-  </si>
-  <si>
-    <t>After looking at the monitor the security guard said, “Sir, please empty your pockets,”.</t>
-  </si>
-  <si>
-    <t>Isabel, shoeless and wrinkling her eyebrows at Sven, and the guard both looked at him expectantly.</t>
+    <t xml:space="preserve">The security guard asked Sven to wait. </t>
+  </si>
+  <si>
+    <t>After looking at the monitor, the security guard said, “Sir, please empty your pockets,”.</t>
+  </si>
+  <si>
+    <t>Isabel, shoeless and wrinkling her eyebrows at Sven, looked at him expectantly.</t>
   </si>
   <si>
     <t>With a sinking feeling Sven realized the mistake he had made forgetting to put the ring back in his bag.</t>
-  </si>
-  <si>
-    <t>Sven,  deciding he would make the best of the situation, grabbed Isabel's hand as he reached into his pocket.</t>
   </si>
   <si>
     <r>
@@ -156,7 +140,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Suddenly, Sven</t>
+      <t>He s</t>
     </r>
     <r>
       <rPr>
@@ -164,44 +148,49 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> got down on one knee and, nervously chuckling, said, “Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
+      <t xml:space="preserve">uddenly grabbed Isabel’s hand to bring her closer, got down on one knee, and opening the velvet box, said, </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">He held the ring out in the velvet box. </t>
-  </si>
-  <si>
-    <t>The security guard gasped.</t>
-  </si>
-  <si>
-    <t>All the people who were putting their shoes back on and gathering their belongings stopped what they were doing and walked closer to the couple.</t>
-  </si>
-  <si>
-    <t>Isabel was in shock, and far too shy to respond in front of the backup of passengers waiting behind them.</t>
-  </si>
-  <si>
-    <t>She turned and frantically grabbed her and Sven’s shoes, leaving Sven to retrieve their bags and laptops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sven, terrified, and now in shock himself, put their laptops in his bag and grabbing both their bags chased after Isabel onto the concourse. </t>
-  </si>
-  <si>
-    <t>Everyone in the terminal was looking at them with confusion as Sven, holding the bags in one hand and the open ring box in the other, finally caught up to her.</t>
-  </si>
-  <si>
-    <t>“Isabel?”</t>
-  </si>
-  <si>
-    <t>He watched her face as she turned, trying to read her expression.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Her eyes were wide, but she was smiling as she hyperventilated, </t>
+      <t>“Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">He held the ring up to her. </t>
+  </si>
+  <si>
+    <t>The security guard stood shocked.</t>
+  </si>
+  <si>
+    <t>All the people who were putting their shoes back on and gathering their belongings stopped and walked closer to the couple.</t>
+  </si>
+  <si>
+    <t>Isabel didn’t know what to do since she was far too shy to respond in front of the people around.</t>
+  </si>
+  <si>
+    <t>Without responding to Sven, she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve the rest, and she quickly walked onto the concourse.</t>
+  </si>
+  <si>
+    <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
+  </si>
+  <si>
+    <t>Everyone in the terminal was looking at them with confusion</t>
+  </si>
+  <si>
+    <t>Sven, holding the bags in one hand and the open ring box in the other, was catching up to her.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">She stopped and with wide, excited eyes, shouted, </t>
     </r>
     <r>
       <rPr>
@@ -221,22 +210,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">They dropped their belongings and hugged, and Sven slipped the ring onto Isabel’s finger. </t>
+    <t xml:space="preserve">They dropped their belongings and hugged, and Sven put the ring onto Isabel’s finger. </t>
   </si>
   <si>
     <t xml:space="preserve">“Isabel, you scared me!” He said. </t>
   </si>
   <si>
-    <t>After getting their shoes back on, they practically skipped to their gate, C40, filled with joy.</t>
+    <t>After getting their shoes back on, they practically floated to their gate C40.</t>
   </si>
   <si>
     <t>Sven was so happy he even high-fived a confused shoe-shine attendant as they passed.</t>
   </si>
   <si>
-    <t>They arrived at their gate, having actually made good time, until the attendant called for passengers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before boarding, Isabel texted her best friend telling her the news. </t>
+    <t xml:space="preserve">Isabel texted her best friend telling her the news as they walked. </t>
+  </si>
+  <si>
+    <t>They arrived at their gate, and waited until the attendant called for passengers, and they scanned their tickets to board the plane.</t>
   </si>
   <si>
     <r>
@@ -245,23 +234,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>After awhile, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>ey boarded, sitting together in first class, in seats 2A and 2B, and had a glass of champagne to celebrate the departure into their new life together.</t>
+      <t>They walked through the connecting tunnel to the plane and sat together in first class, in seats 2A and 2B.</t>
     </r>
   </si>
   <si>
@@ -1589,7 +1562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1665,7 +1638,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="331.8" customHeight="1">
+    <row r="5" ht="367.8" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1695,7 +1668,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="241.8" customHeight="1">
+    <row r="7" ht="223.8" customHeight="1">
       <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
@@ -1740,7 +1713,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="115.8" customHeight="1">
+    <row r="10" ht="97.8" customHeight="1">
       <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
@@ -1785,7 +1758,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="223.8" customHeight="1">
+    <row r="13" ht="295.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
@@ -1800,7 +1773,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="241.8" customHeight="1">
+    <row r="14" ht="223.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
@@ -1815,7 +1788,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="331.8" customHeight="1">
+    <row r="15" ht="169.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
@@ -1830,7 +1803,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="223.8" customHeight="1">
+    <row r="16" ht="205.8" customHeight="1">
       <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
@@ -1845,7 +1818,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="61.8" customHeight="1">
+    <row r="17" ht="223.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
@@ -1860,7 +1833,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="151.8" customHeight="1">
+    <row r="18" ht="79.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
@@ -1875,7 +1848,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="205.8" customHeight="1">
+    <row r="19" ht="151.8" customHeight="1">
       <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
@@ -1905,7 +1878,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="205.8" customHeight="1">
+    <row r="21" ht="187.8" customHeight="1">
       <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
@@ -1920,7 +1893,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="277.8" customHeight="1">
+    <row r="22" ht="331.8" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1935,7 +1908,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="44.05" customHeight="1">
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1965,7 +1938,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="259.8" customHeight="1">
+    <row r="25" ht="223.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
@@ -1980,7 +1953,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="205.8" customHeight="1">
+    <row r="26" ht="169.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
@@ -1995,12 +1968,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="205.8" customHeight="1">
+    <row r="27" ht="277.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -2010,7 +1983,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="277.8" customHeight="1">
+    <row r="28" ht="169.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -2025,7 +1998,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="277.8" customHeight="1">
+    <row r="29" ht="97.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -2040,22 +2013,18 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="25.8" customHeight="1">
+    <row r="30" ht="187.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="115.8" customHeight="1">
+    <row r="31" ht="151.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -2063,14 +2032,14 @@
         <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="169.8" customHeight="1">
+    <row r="32" ht="187.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -2085,27 +2054,27 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="187.8" customHeight="1">
+    <row r="33" ht="61.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="B33" s="9">
-        <v>3</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="61.8" customHeight="1">
+    <row r="34" ht="151.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2126,7 +2095,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="169.8" customHeight="1">
+    <row r="36" ht="115.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>38</v>
       </c>
@@ -2141,12 +2110,12 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="187.8" customHeight="1">
+    <row r="37" ht="223.8" customHeight="1">
       <c r="A37" t="s" s="12">
         <v>39</v>
       </c>
       <c r="B37" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="10">
         <v>4</v>
@@ -2156,12 +2125,12 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="133.8" customHeight="1">
+    <row r="38" ht="187.8" customHeight="1">
       <c r="A38" t="s" s="12">
         <v>40</v>
       </c>
       <c r="B38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
@@ -2171,7 +2140,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="313.8" customHeight="1">
+    <row r="39" ht="385.8" customHeight="1">
       <c r="A39" t="s" s="12">
         <v>41</v>
       </c>
@@ -2186,7 +2155,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="385.8" customHeight="1">
+    <row r="40" ht="440.35" customHeight="1">
       <c r="A40" t="s" s="12">
         <v>42</v>
       </c>
@@ -2201,29 +2170,14 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="440.35" customHeight="1">
-      <c r="A41" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
-      <c r="C41" s="10">
-        <v>4</v>
-      </c>
+    <row r="41" ht="25.8" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="25.8" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -271,7 +271,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -472,13 +472,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1570,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2017,8 +2023,12 @@
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2058,8 +2068,12 @@
       <c r="A33" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2171,8 +2185,8 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" ht="25.8" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -51,14 +51,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible weekend with Isabel’s family, which had wiped away any doubts Sven had had about his decision to propose. </t>
+      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible weekend with Isabel’s family, and this had wiped away any doubts Sven had had about his decision to propose. </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">They had only been dating for 11 months so this was the first time he had met her family. </t>
   </si>
   <si>
-    <t xml:space="preserve">They were a little pressed for time, with only a little over an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
+    <t xml:space="preserve">They were a little pressed for time, with an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
   </si>
   <si>
     <r>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
   </si>
   <si>
-    <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces hidden all over his body. </t>
-  </si>
-  <si>
-    <t>Sven had to hold the growing mound of objects she pulled from her bag until she unearthed the laptop and set it in a bin.</t>
+    <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces on his person. </t>
+  </si>
+  <si>
+    <t>Sven had to hold the growing mound of objects Isabel pulled from her bag until she unearthed the laptop and set it in a bin.</t>
   </si>
   <si>
     <t>She then gave her bag to Sven, unstrapped her heels, and took the bag back from Sven.</t>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Isabel, shoeless and wrinkling her eyebrows at Sven, looked at him expectantly.</t>
-  </si>
-  <si>
-    <t>With a sinking feeling Sven realized the mistake he had made forgetting to put the ring back in his bag.</t>
   </si>
   <si>
     <r>
@@ -140,7 +137,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>He s</t>
+      <t>Realizing that he had forgotten the ring in his pocket, he s</t>
     </r>
     <r>
       <rPr>
@@ -169,16 +166,13 @@
     <t>All the people who were putting their shoes back on and gathering their belongings stopped and walked closer to the couple.</t>
   </si>
   <si>
-    <t>Isabel didn’t know what to do since she was far too shy to respond in front of the people around.</t>
+    <t>Isabel didn’t know what to do since she was far too shy to respond in front of all the people around.</t>
   </si>
   <si>
     <t>Without responding to Sven, she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve the rest, and she quickly walked onto the concourse.</t>
   </si>
   <si>
     <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
-  </si>
-  <si>
-    <t>Everyone in the terminal was looking at them with confusion</t>
   </si>
   <si>
     <t>Sven, holding the bags in one hand and the open ring box in the other, was catching up to her.</t>
@@ -225,7 +219,7 @@
     <t xml:space="preserve">Isabel texted her best friend telling her the news as they walked. </t>
   </si>
   <si>
-    <t>They arrived at their gate, and waited until the attendant called for passengers, and they scanned their tickets to board the plane.</t>
+    <t>Having arrived at their gate, they waited, until the attendant called for passengers, and they scanned their tickets to board the plane.</t>
   </si>
   <si>
     <r>
@@ -238,7 +232,7 @@
     </r>
   </si>
   <si>
-    <t>Some of their neighboring passengers who had witnessed the proposal congratulated them, and a woman next to them showed them that she had been live-tweeting the whole event and that it was already going viral online.</t>
+    <t>Some of their neighboring passengers who had witnessed the proposal at security congratulated them, and a woman next to them showed them that she had been live-tweeting the whole event and that it was already going viral online.</t>
   </si>
   <si>
     <r>
@@ -271,7 +265,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -472,10 +466,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1562,7 +1556,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1570,13 +1564,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1597,7 +1585,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="164.25" customHeight="1">
+    <row r="2" ht="176.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1629,7 +1617,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="164.05" customHeight="1">
+    <row r="4" ht="152.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1764,7 +1752,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="295.8" customHeight="1">
+    <row r="13" ht="259.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
@@ -1779,7 +1767,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="223.8" customHeight="1">
+    <row r="14" ht="241.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
@@ -1884,22 +1872,22 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="187.8" customHeight="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" ht="421.8" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="331.8" customHeight="1">
+    <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1914,8 +1902,8 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" ht="61.8" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
       <c r="B23" s="9">
@@ -1929,7 +1917,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="61.8" customHeight="1">
+    <row r="24" ht="223.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
@@ -1944,7 +1932,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="223.8" customHeight="1">
+    <row r="25" ht="169.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
@@ -1959,12 +1947,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="169.8" customHeight="1">
+    <row r="26" ht="277.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
       <c r="B26" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -1974,7 +1962,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="277.8" customHeight="1">
+    <row r="27" ht="169.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
@@ -1989,7 +1977,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="169.8" customHeight="1">
+    <row r="28" ht="187.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -2004,7 +1992,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="97.8" customHeight="1">
+    <row r="29" ht="151.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -2012,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2027,14 +2015,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="151.8" customHeight="1">
+    <row r="31" ht="61.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -2049,7 +2037,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="187.8" customHeight="1">
+    <row r="32" ht="151.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -2064,7 +2052,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="61.8" customHeight="1">
+    <row r="33" ht="169.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>35</v>
       </c>
@@ -2079,7 +2067,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="151.8" customHeight="1">
+    <row r="34" ht="115.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>36</v>
       </c>
@@ -2094,12 +2082,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="169.8" customHeight="1">
+    <row r="35" ht="241.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>37</v>
       </c>
       <c r="B35" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="10">
         <v>4</v>
@@ -2109,12 +2097,12 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="115.8" customHeight="1">
+    <row r="36" ht="187.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>38</v>
       </c>
       <c r="B36" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
@@ -2124,7 +2112,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="223.8" customHeight="1">
+    <row r="37" ht="403.8" customHeight="1">
       <c r="A37" t="s" s="12">
         <v>39</v>
       </c>
@@ -2139,7 +2127,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="187.8" customHeight="1">
+    <row r="38" ht="440.35" customHeight="1">
       <c r="A38" t="s" s="12">
         <v>40</v>
       </c>
@@ -2154,44 +2142,14 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="385.8" customHeight="1">
-      <c r="A39" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4</v>
-      </c>
-      <c r="C39" s="10">
-        <v>4</v>
-      </c>
+    <row r="39" ht="25.8" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="440.35" customHeight="1">
-      <c r="A40" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="25.8" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -51,14 +51,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible weekend with Isabel’s family, and this had wiped away any doubts Sven had had about his decision to propose. </t>
+      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible week with Isabel’s family, and this had wiped away any doubts Sven had had about his decision to propose. </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">They had only been dating for 11 months so this was the first time he had met her family. </t>
   </si>
   <si>
-    <t xml:space="preserve">They were a little pressed for time, with an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
+    <t xml:space="preserve">They were pressed for time at the airport, with an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
   </si>
   <si>
     <r>
@@ -67,7 +67,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Isabel stopped to rummage through her purse looking for her phone, and meanwhile Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
+      <t>Isabel stopped to rummage through her purse to look for her phone, and meanwhile Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
     </r>
   </si>
   <si>
@@ -137,7 +137,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Realizing that he had forgotten the ring in his pocket, he s</t>
+      <t xml:space="preserve">Realizing that he had forgotten the ring in his pocket, he </t>
     </r>
     <r>
       <rPr>
@@ -145,7 +145,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">uddenly grabbed Isabel’s hand to bring her closer, got down on one knee, and opening the velvet box, said, </t>
+      <t xml:space="preserve">grabbed Isabel’s, got down on one knee, and opening the velvet box, said, </t>
     </r>
     <r>
       <rPr>
@@ -175,7 +175,7 @@
     <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
   </si>
   <si>
-    <t>Sven, holding the bags in one hand and the open ring box in the other, was catching up to her.</t>
+    <t>Sven eventually caught up to her with their bags and the open ring box.</t>
   </si>
   <si>
     <r>
@@ -200,17 +200,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">f course yes, Sven, yes!” </t>
+      <t xml:space="preserve">f course yes, Sven!” </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">They dropped their belongings and hugged, and Sven put the ring onto Isabel’s finger. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Isabel, you scared me!” He said. </t>
-  </si>
-  <si>
-    <t>After getting their shoes back on, they practically floated to their gate C40.</t>
+    <t xml:space="preserve">“Isabel, you scared me!” he said. </t>
+  </si>
+  <si>
+    <t>After getting their shoes back on, they practically floated to gate C40.</t>
   </si>
   <si>
     <t>Sven was so happy he even high-fived a confused shoe-shine attendant as they passed.</t>
@@ -241,7 +241,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Isabel slid down in her seat with her hands over her face, both embarrassed and overjoyed at the same time.</t>
+      <t>Isabel slid down in her seat with her hands over her face, embarrassed and overjoyed at the same time.</t>
     </r>
     <r>
       <rPr>
@@ -1585,7 +1585,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="176.25" customHeight="1">
+    <row r="2" ht="164.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="367.8" customHeight="1">
+    <row r="5" ht="349.8" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="421.8" customHeight="1">
+    <row r="21" ht="349.8" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="187.8" customHeight="1">
+    <row r="28" ht="151.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="151.8" customHeight="1">
+    <row r="32" ht="133.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -55,10 +55,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">They had only been dating for 11 months so this was the first time he had met her family. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were pressed for time at the airport, with an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and no checked luggage. </t>
+    <t xml:space="preserve">They had only been dating for 11 months and this had been the first time he had met her family. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were pressed for time at the airport with only an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and were without checked luggage. </t>
   </si>
   <si>
     <r>
@@ -67,17 +67,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Isabel stopped to rummage through her purse to look for her phone, and meanwhile Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
+      <t>Isabel stopped to rummage through her purse to look for her phone, and, meanwhile, Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">He had received her parents’ blessing during the trip, and he was almost giddy with excitement. </t>
   </si>
   <si>
-    <t xml:space="preserve">He tilted the ring backward and forward, despite having already studied it daily since purchasing it a few weeks ago. </t>
-  </si>
-  <si>
-    <t>It was a simple design, with two pink diamonds on a silver band.</t>
+    <t xml:space="preserve">He tilted the ring backward and forward for a careful examination despite having already studied the ring daily since purchasing it a few weeks ago. </t>
+  </si>
+  <si>
+    <t>It was a simple design: two pink diamonds on a silver band.</t>
   </si>
   <si>
     <t xml:space="preserve">“Sven, I’m good,” Isabel said. </t>
@@ -104,7 +104,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">When they were up, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
+    <t xml:space="preserve">When it was their turn to deposit their things onto the belt, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
   </si>
   <si>
     <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces on his person. </t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, and took off his shoes. </t>
   </si>
   <si>
-    <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and the metal bars whirled around him.</t>
+    <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and looked at Isabel as the metal bars whirled around him.</t>
   </si>
   <si>
     <t xml:space="preserve">The security guard asked Sven to wait. </t>
@@ -145,7 +145,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">grabbed Isabel’s, got down on one knee, and opening the velvet box, said, </t>
+      <t xml:space="preserve">grabbed Isabel’s hand, got down on one knee, and opening the velvet box, said, </t>
     </r>
     <r>
       <rPr>
@@ -1617,7 +1617,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="152.05" customHeight="1">
+    <row r="4" ht="164.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="223.8" customHeight="1">
+    <row r="7" ht="277.8" customHeight="1">
       <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="169.8" customHeight="1">
+    <row r="12" ht="223.8" customHeight="1">
       <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="223.8" customHeight="1">
+    <row r="17" ht="241.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="349.8" customHeight="1">
+    <row r="21" ht="367.8" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>

--- a/story_xlsx_files/22.xlsx
+++ b/story_xlsx_files/22.xlsx
@@ -80,7 +80,7 @@
     <t>It was a simple design: two pink diamonds on a silver band.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Sven, I’m good,” Isabel said. </t>
+    <t xml:space="preserve">“Sven, I’m ready,” Isabel said. </t>
   </si>
   <si>
     <t>Sven closed the box and discretely put it in his pocket.</t>
